--- a/example_data/EPA/label_corrected/000352-00919-20160202_2018-12-07_223206.xlsx
+++ b/example_data/EPA/label_corrected/000352-00919-20160202_2018-12-07_223206.xlsx
@@ -700,7 +700,7 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>18_Hazards_to_Humans_and_Domestic_Animals</t>
+          <t>18_hazards_to_humans_and_domestic_animals</t>
         </is>
       </c>
       <c r="G10" t="inlineStr"/>
@@ -740,7 +740,7 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>PPE</t>
+          <t>ppe</t>
         </is>
       </c>
       <c r="G11" t="inlineStr"/>
@@ -770,7 +770,7 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Application instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G12" t="inlineStr"/>
@@ -1015,7 +1015,7 @@
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>135_Product_Information</t>
+          <t>135_product_information</t>
         </is>
       </c>
       <c r="G21" t="inlineStr"/>
@@ -1089,7 +1089,7 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G23" t="inlineStr"/>
@@ -1119,7 +1119,7 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G24" t="inlineStr"/>
@@ -1168,7 +1168,7 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G25" t="inlineStr"/>
@@ -1342,7 +1342,7 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G31" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G32" t="inlineStr"/>
@@ -1406,7 +1406,7 @@
       </c>
       <c r="F33" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G33" t="inlineStr"/>
@@ -1436,7 +1436,7 @@
       </c>
       <c r="F34" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G34" t="inlineStr"/>
@@ -1466,7 +1466,7 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G35" t="inlineStr"/>
@@ -1505,7 +1505,7 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G36" t="inlineStr"/>
@@ -1563,7 +1563,7 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G38" t="inlineStr"/>
@@ -1596,7 +1596,7 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G39" t="inlineStr"/>
@@ -1629,7 +1629,7 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G40" t="inlineStr"/>
@@ -1657,7 +1657,7 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G41" t="inlineStr"/>
@@ -1840,7 +1840,7 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G47" t="inlineStr"/>
@@ -1874,7 +1874,7 @@
       </c>
       <c r="F48" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G48" t="inlineStr"/>
@@ -1920,7 +1920,7 @@
       </c>
       <c r="F49" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G49" t="inlineStr"/>
@@ -1955,7 +1955,7 @@
       </c>
       <c r="F50" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G50" t="inlineStr"/>
@@ -2042,7 +2042,7 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G53" t="inlineStr"/>
@@ -2099,7 +2099,7 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G55" t="inlineStr"/>
@@ -2134,7 +2134,7 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G56" t="inlineStr"/>
@@ -2164,7 +2164,7 @@
       </c>
       <c r="F57" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G57" t="inlineStr"/>
@@ -2194,7 +2194,7 @@
       </c>
       <c r="F58" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G58" t="inlineStr"/>
@@ -2226,7 +2226,7 @@
       </c>
       <c r="F59" t="inlineStr">
         <is>
-          <t>Use Restrictions</t>
+          <t>use restrictions</t>
         </is>
       </c>
       <c r="G59" t="inlineStr"/>
@@ -2257,7 +2257,7 @@
       </c>
       <c r="F60" t="inlineStr">
         <is>
-          <t>134_Non-agriculture_Use_Requirements</t>
+          <t>134_non-agriculture_use_requirements</t>
         </is>
       </c>
       <c r="G60" t="inlineStr"/>
@@ -2368,7 +2368,7 @@
       </c>
       <c r="F64" t="inlineStr">
         <is>
-          <t>Mixing</t>
+          <t>mixing</t>
         </is>
       </c>
       <c r="G64" t="inlineStr"/>
@@ -2430,7 +2430,7 @@
       </c>
       <c r="F66" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G66" t="inlineStr"/>
@@ -2460,7 +2460,7 @@
       </c>
       <c r="F67" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G67" t="inlineStr"/>
@@ -2646,7 +2646,7 @@
       </c>
       <c r="F74" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G74" t="inlineStr"/>
@@ -2674,7 +2674,7 @@
       </c>
       <c r="F75" t="inlineStr">
         <is>
-          <t>Chemigation</t>
+          <t>chemigation</t>
         </is>
       </c>
       <c r="G75" t="inlineStr"/>
@@ -2740,7 +2740,7 @@
       </c>
       <c r="F77" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G77" t="inlineStr"/>
@@ -2770,7 +2770,7 @@
       </c>
       <c r="F78" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G78" t="inlineStr"/>
@@ -2813,7 +2813,7 @@
       </c>
       <c r="F79" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G79" t="inlineStr"/>
@@ -2851,7 +2851,7 @@
       </c>
       <c r="F80" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G80" t="inlineStr"/>
@@ -2881,7 +2881,7 @@
       </c>
       <c r="F81" t="inlineStr">
         <is>
-          <t>Safety Procedures</t>
+          <t>safety procedures</t>
         </is>
       </c>
       <c r="G81" t="inlineStr"/>
@@ -2911,7 +2911,7 @@
       </c>
       <c r="F82" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G82" t="inlineStr"/>
@@ -2947,7 +2947,7 @@
       </c>
       <c r="F83" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G83" t="inlineStr"/>
@@ -2981,7 +2981,7 @@
       </c>
       <c r="F84" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G84" t="inlineStr"/>
@@ -3017,7 +3017,7 @@
       </c>
       <c r="F85" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G85" t="inlineStr"/>
@@ -3052,7 +3052,7 @@
       </c>
       <c r="F86" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G86" t="inlineStr"/>
@@ -3084,7 +3084,7 @@
       </c>
       <c r="F87" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G87" t="inlineStr"/>
@@ -3113,7 +3113,7 @@
       </c>
       <c r="F88" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G88" t="inlineStr"/>
@@ -3170,7 +3170,7 @@
       </c>
       <c r="F90" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G90" t="inlineStr"/>
@@ -3199,7 +3199,7 @@
       </c>
       <c r="F91" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G91" t="inlineStr"/>
@@ -3232,7 +3232,7 @@
       </c>
       <c r="F92" t="inlineStr">
         <is>
-          <t>Application Instructions</t>
+          <t>application instructions</t>
         </is>
       </c>
       <c r="G92" t="inlineStr"/>
@@ -3262,7 +3262,7 @@
       </c>
       <c r="F93" t="inlineStr">
         <is>
-          <t>172_Sensitive_Areas</t>
+          <t>172_sensitive_areas</t>
         </is>
       </c>
       <c r="G93" t="inlineStr"/>
@@ -3293,7 +3293,7 @@
       </c>
       <c r="F94" t="inlineStr">
         <is>
-          <t>Off Target Movement</t>
+          <t>off target movement</t>
         </is>
       </c>
       <c r="G94" t="inlineStr"/>
@@ -3352,7 +3352,7 @@
       </c>
       <c r="F96" t="inlineStr">
         <is>
-          <t>154_Pesticide_Storage</t>
+          <t>154_pesticide_storage</t>
         </is>
       </c>
       <c r="G96" t="inlineStr"/>
